--- a/TNR/infoPARA.xlsx
+++ b/TNR/infoPARA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="226">
   <si>
     <t>NOM</t>
   </si>
@@ -399,6 +399,372 @@
 RO.ACT.003HAB
 RO.ACT.003MET
 RO.ACT.004EMP</t>
+  </si>
+  <si>
+    <t>ID_CODCOM</t>
+  </si>
+  <si>
+    <t>MP.CPT*001*ID_CODCOM</t>
+  </si>
+  <si>
+    <t>MP.CPT.001</t>
+  </si>
+  <si>
+    <t>ID_CODUNI</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.FOU.001
+RO.SOCIETE.001
+MP.CPT.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.FOU.001
+MP.CPT.001</t>
+  </si>
+  <si>
+    <t>AC.CEM.001
+AC.CMR.001
+AC.CPA.001
+AC.CPO.001
+RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+MP.CPT.001</t>
+  </si>
+  <si>
+    <t>NU_VALN</t>
+  </si>
+  <si>
+    <t>DT_MAJN</t>
+  </si>
+  <si>
+    <t>NU_DEL</t>
+  </si>
+  <si>
+    <t>ST_MAJDEL</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+RO.FOU.001
+MP.CPT.001</t>
+  </si>
+  <si>
+    <t>ST_MPH</t>
+  </si>
+  <si>
+    <t>ST_TELE</t>
+  </si>
+  <si>
+    <t>DT_DATREF</t>
+  </si>
+  <si>
+    <t>ID_CODCOMPRI</t>
+  </si>
+  <si>
+    <t>ST_COMMAJEQU</t>
+  </si>
+  <si>
+    <t>ST_COMMAJMAT</t>
+  </si>
+  <si>
+    <t>ST_COMNOTMAJ</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+MP.CPT.001</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODCOMPRI</t>
+  </si>
+  <si>
+    <t>ST_DES*COM*ID_CODCOM</t>
+  </si>
+  <si>
+    <t>ST_DESID_NUMZON</t>
+  </si>
+  <si>
+    <t>ST_DES*ZON*ID_NUMZON</t>
+  </si>
+  <si>
+    <t>ID_NUMADR</t>
+  </si>
+  <si>
+    <t>ADR_ID</t>
+  </si>
+  <si>
+    <t>RO.ADR.001</t>
+  </si>
+  <si>
+    <t>ST_ADR</t>
+  </si>
+  <si>
+    <t>ST_ADRCOM</t>
+  </si>
+  <si>
+    <t>ST_CODPOS</t>
+  </si>
+  <si>
+    <t>ST_VIL</t>
+  </si>
+  <si>
+    <t>ID_CODPAY</t>
+  </si>
+  <si>
+    <t>ST_PAY</t>
+  </si>
+  <si>
+    <t>ST_GPS</t>
+  </si>
+  <si>
+    <t>ST_RELAPA</t>
+  </si>
+  <si>
+    <t>ST_REFEXT</t>
+  </si>
+  <si>
+    <t>ST_CEDEX</t>
+  </si>
+  <si>
+    <t>NU_CEDEX</t>
+  </si>
+  <si>
+    <t>ST_ADRPAR</t>
+  </si>
+  <si>
+    <t>ST_ADRCOM2</t>
+  </si>
+  <si>
+    <t>ST_MENSPE</t>
+  </si>
+  <si>
+    <t>ID_CODFOU</t>
+  </si>
+  <si>
+    <t>RO.FOU*001*ID_CODFOU</t>
+  </si>
+  <si>
+    <t>RO.FOU.001</t>
+  </si>
+  <si>
+    <t>ID_CODPAI</t>
+  </si>
+  <si>
+    <t>AC.CPA*001*ID_CODPAI</t>
+  </si>
+  <si>
+    <t>ID_CODMOD</t>
+  </si>
+  <si>
+    <t>AC.CMR*001*ID_CODMOD</t>
+  </si>
+  <si>
+    <t>ID_CODPOR</t>
+  </si>
+  <si>
+    <t>AC.CPO*001*ID_CODPOR</t>
+  </si>
+  <si>
+    <t>ID_CODEMB</t>
+  </si>
+  <si>
+    <t>AC.CEM*001*ID_CODEMB</t>
+  </si>
+  <si>
+    <t>ID_CODDEV</t>
+  </si>
+  <si>
+    <t>RO.DEV*001*ID_CODDEV</t>
+  </si>
+  <si>
+    <t>ID_NUMDOC</t>
+  </si>
+  <si>
+    <t>FOUDOC_ID</t>
+  </si>
+  <si>
+    <t>ST_TELEX</t>
+  </si>
+  <si>
+    <t>ST_EMA</t>
+  </si>
+  <si>
+    <t>ST_CON</t>
+  </si>
+  <si>
+    <t>ST_PRIDEL</t>
+  </si>
+  <si>
+    <t>ST_REL</t>
+  </si>
+  <si>
+    <t>ST_NOTPRO</t>
+  </si>
+  <si>
+    <t>ST_TXTBAS1</t>
+  </si>
+  <si>
+    <t>ST_TXTBAS2</t>
+  </si>
+  <si>
+    <t>ST_TXTBAS3</t>
+  </si>
+  <si>
+    <t>ST_TXTBAS4</t>
+  </si>
+  <si>
+    <t>ST_TXTBAS5</t>
+  </si>
+  <si>
+    <t>ST_TXTBAS6</t>
+  </si>
+  <si>
+    <t>ST_CONSTR</t>
+  </si>
+  <si>
+    <t>ST_FIGCAT</t>
+  </si>
+  <si>
+    <t>ST_FIGCDE</t>
+  </si>
+  <si>
+    <t>ST_CODCOM</t>
+  </si>
+  <si>
+    <t>RO.CCO*001*ID_CODCMP</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+MP.CPT.001
+RO.FOU.001</t>
+  </si>
+  <si>
+    <t>ST_DESST_CODCOM</t>
+  </si>
+  <si>
+    <t>ST_DES*CMP*ID_CODCMP</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODPAI</t>
+  </si>
+  <si>
+    <t>ST_DES*CONPAI*ID_CODPAI</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODMOD</t>
+  </si>
+  <si>
+    <t>ST_DES*CONMOD*ID_CODMOD</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODDEV</t>
+  </si>
+  <si>
+    <t>ST_DES*DEV*ID_CODDEV</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODPOR</t>
+  </si>
+  <si>
+    <t>ST_DES*CONPOR*ID_CODPOR</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODEMB</t>
+  </si>
+  <si>
+    <t>ST_DES*CONEMB*ID8CODEMB</t>
+  </si>
+  <si>
+    <t>RO.FOU*001*ID_NUMDOC</t>
+  </si>
+  <si>
+    <t>RO.FOU.001A</t>
+  </si>
+  <si>
+    <t>RO.FOU.001
+RO.FOU.001A</t>
+  </si>
+  <si>
+    <t>OL_DOC</t>
+  </si>
+  <si>
+    <t>//div[@id='DVID_NUMDOC']/p/span</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>ID_CODART</t>
+  </si>
+  <si>
+    <t>RT.ART.001</t>
+  </si>
+  <si>
+    <t>MP.CPT.001
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>ID_CODTVA</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.FOU.001
+RO.SOCIETE.001
+MP.CPT.001
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.FOU.001
+MP.CPT.001
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>AC.CEM.001
+AC.CMR.001
+AC.CPA.001
+AC.CPO.001
+RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+MP.CPT.001
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>ST_TYPART</t>
+  </si>
+  <si>
+    <t>ST_TXTCDE</t>
+  </si>
+  <si>
+    <t>RO.FOU.001
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>NU_PRIPMP</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+RO.FOU.001
+MP.CPT.001
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>ST_CONOBL</t>
+  </si>
+  <si>
+    <t>ID_CODNATART</t>
   </si>
 </sst>
 </file>
@@ -435,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -451,6 +817,12 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="top"/>
@@ -752,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -803,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
     </row>
     <row ht="28.8" r="3" spans="1:10">
@@ -870,13 +1242,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
     </row>
     <row ht="28.8" r="8" spans="1:10">
@@ -1064,7 +1436,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
     </row>
     <row ht="28.8" r="24" spans="1:10">
@@ -1086,7 +1458,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
     </row>
     <row ht="28.8" r="26" spans="1:10">
@@ -1285,7 +1657,7 @@
         <v>71</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1296,13 +1668,13 @@
         <v>73</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1513,31 +1885,870 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="7">
+      <c r="A59" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C59" t="s" s="7">
+      <c r="C59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="6">
+      <c r="D59" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I59" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="J59" t="s" s="6">
+      <c r="I59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="7">
+      <c r="A60" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C60" t="s" s="7">
+      <c r="C60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D60" t="s" s="6">
-        <v>32</v>
+      <c r="D60" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="9">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s" s="9">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="I61" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J61" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="9">
+        <v>123</v>
+      </c>
+      <c r="I62" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J62" t="s" s="8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="9">
+        <v>127</v>
+      </c>
+      <c r="I63" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J63" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="9">
+        <v>128</v>
+      </c>
+      <c r="I64" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J64" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="9">
+        <v>129</v>
+      </c>
+      <c r="I65" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J65" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="9">
+        <v>130</v>
+      </c>
+      <c r="I66" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="9">
+        <v>132</v>
+      </c>
+      <c r="I67" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="9">
+        <v>133</v>
+      </c>
+      <c r="I68" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="9">
+        <v>134</v>
+      </c>
+      <c r="I69" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J69" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="9">
+        <v>135</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>121</v>
+      </c>
+      <c r="D70" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="I70" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J70" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="9">
+        <v>136</v>
+      </c>
+      <c r="I71" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="9">
+        <v>137</v>
+      </c>
+      <c r="I72" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="9">
+        <v>138</v>
+      </c>
+      <c r="I73" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="9">
+        <v>140</v>
+      </c>
+      <c r="E74" t="s" s="9">
+        <v>141</v>
+      </c>
+      <c r="F74" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="I74" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J74" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="9">
+        <v>142</v>
+      </c>
+      <c r="E75" t="s" s="9">
+        <v>143</v>
+      </c>
+      <c r="F75" t="s" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="9">
+        <v>144</v>
+      </c>
+      <c r="G76" t="s" s="9">
+        <v>145</v>
+      </c>
+      <c r="H76" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="9">
+        <v>147</v>
+      </c>
+      <c r="I77" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
+        <v>148</v>
+      </c>
+      <c r="I78" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="9">
+        <v>149</v>
+      </c>
+      <c r="I79" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J79" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="9">
+        <v>150</v>
+      </c>
+      <c r="I80" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J80" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="9">
+        <v>151</v>
+      </c>
+      <c r="I81" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J81" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="9">
+        <v>152</v>
+      </c>
+      <c r="I82" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J82" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="9">
+        <v>153</v>
+      </c>
+      <c r="I83" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J83" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="9">
+        <v>154</v>
+      </c>
+      <c r="I84" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J84" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="9">
+        <v>155</v>
+      </c>
+      <c r="I85" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J85" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="9">
+        <v>156</v>
+      </c>
+      <c r="I86" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J86" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="9">
+        <v>157</v>
+      </c>
+      <c r="I87" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J87" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="9">
+        <v>158</v>
+      </c>
+      <c r="I88" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J88" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="I89" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J89" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="9">
+        <v>160</v>
+      </c>
+      <c r="I90" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J90" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="9">
+        <v>161</v>
+      </c>
+      <c r="C91" t="s" s="9">
+        <v>162</v>
+      </c>
+      <c r="D91" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I91" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J91" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="9">
+        <v>164</v>
+      </c>
+      <c r="C92" t="s" s="9">
+        <v>165</v>
+      </c>
+      <c r="D92" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I92" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J92" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="9">
+        <v>166</v>
+      </c>
+      <c r="C93" t="s" s="9">
+        <v>167</v>
+      </c>
+      <c r="D93" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I93" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J93" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="9">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s" s="9">
+        <v>169</v>
+      </c>
+      <c r="D94" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I94" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J94" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="9">
+        <v>170</v>
+      </c>
+      <c r="C95" t="s" s="9">
+        <v>171</v>
+      </c>
+      <c r="D95" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I95" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J95" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="9">
+        <v>172</v>
+      </c>
+      <c r="C96" t="s" s="9">
+        <v>173</v>
+      </c>
+      <c r="D96" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I96" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J96" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="9">
+        <v>174</v>
+      </c>
+      <c r="C97" t="s" s="9">
+        <v>206</v>
+      </c>
+      <c r="D97" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="G97" t="s" s="9">
+        <v>175</v>
+      </c>
+      <c r="H97" t="s" s="8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="9">
+        <v>176</v>
+      </c>
+      <c r="I98" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J98" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="9">
+        <v>177</v>
+      </c>
+      <c r="I99" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J99" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="9">
+        <v>178</v>
+      </c>
+      <c r="I100" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J100" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="9">
+        <v>179</v>
+      </c>
+      <c r="I101" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J101" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="9">
+        <v>180</v>
+      </c>
+      <c r="I102" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J102" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="9">
+        <v>181</v>
+      </c>
+      <c r="I103" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J103" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="9">
+        <v>182</v>
+      </c>
+      <c r="I104" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J104" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="9">
+        <v>183</v>
+      </c>
+      <c r="I105" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J105" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="9">
+        <v>184</v>
+      </c>
+      <c r="I106" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J106" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="9">
+        <v>185</v>
+      </c>
+      <c r="I107" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J107" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="I108" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J108" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="9">
+        <v>187</v>
+      </c>
+      <c r="I109" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J109" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="9">
+        <v>188</v>
+      </c>
+      <c r="I110" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J110" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="9">
+        <v>189</v>
+      </c>
+      <c r="I111" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J111" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="9">
+        <v>190</v>
+      </c>
+      <c r="I112" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J112" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="9">
+        <v>191</v>
+      </c>
+      <c r="C113" t="s" s="9">
+        <v>192</v>
+      </c>
+      <c r="D113" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I113" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J113" t="s" s="8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="9">
+        <v>194</v>
+      </c>
+      <c r="E114" t="s" s="9">
+        <v>195</v>
+      </c>
+      <c r="F114" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I114" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J114" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="9">
+        <v>196</v>
+      </c>
+      <c r="E115" t="s" s="9">
+        <v>197</v>
+      </c>
+      <c r="F115" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I115" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J115" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="9">
+        <v>198</v>
+      </c>
+      <c r="E116" t="s" s="9">
+        <v>199</v>
+      </c>
+      <c r="F116" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I116" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J116" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="9">
+        <v>200</v>
+      </c>
+      <c r="E117" t="s" s="9">
+        <v>201</v>
+      </c>
+      <c r="F117" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I117" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J117" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="9">
+        <v>202</v>
+      </c>
+      <c r="E118" t="s" s="9">
+        <v>203</v>
+      </c>
+      <c r="F118" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I118" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J118" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="9">
+        <v>204</v>
+      </c>
+      <c r="E119" t="s" s="9">
+        <v>205</v>
+      </c>
+      <c r="F119" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="I119" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J119" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="9">
+        <v>209</v>
+      </c>
+      <c r="I120" t="s" s="9">
+        <v>210</v>
+      </c>
+      <c r="J120" t="s" s="8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="9">
+        <v>212</v>
+      </c>
+      <c r="I121" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J121" t="s" s="8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="9">
+        <v>215</v>
+      </c>
+      <c r="I122" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J122" t="s" s="8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="9">
+        <v>219</v>
+      </c>
+      <c r="I123" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="J123" t="s" s="8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="9">
+        <v>220</v>
+      </c>
+      <c r="I124" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J124" t="s" s="8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="9">
+        <v>222</v>
+      </c>
+      <c r="I125" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J125" t="s" s="8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="9">
+        <v>224</v>
+      </c>
+      <c r="I126" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="J126" t="s" s="8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="9">
+        <v>225</v>
+      </c>
+      <c r="I127" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="J127" t="s" s="8">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/TNR/infoPARA.xlsx
+++ b/TNR/infoPARA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="274">
   <si>
     <t>NOM</t>
   </si>
@@ -765,6 +765,277 @@
   </si>
   <si>
     <t>ID_CODNATART</t>
+  </si>
+  <si>
+    <t>NU_COECOR</t>
+  </si>
+  <si>
+    <t>ST_NUMGTC</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.ORG.001
+RT.EMP.001
+RO.CAL.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.CAL.001</t>
+  </si>
+  <si>
+    <t>AC.CEM.001
+AC.CMR.001
+AC.CPA.001
+AC.CPO.001
+RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+MP.CPT.001
+RT.ART.001
+RO.CAL.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+RO.FOU.001
+MP.CPT.001
+RT.ART.001
+RO.CAL.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.ORG.001
+RT.EMP.001
+RO.CAL.001
+RO.CAL.001A</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.CAL.001
+RO.CAL.001A</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.CAT.001</t>
+  </si>
+  <si>
+    <t>AC.CEM.001
+AC.CMR.001
+AC.CPA.001
+AC.CPO.001
+RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+MP.CPT.001
+RT.ART.001
+RO.CAL.001
+RO.CAT.001</t>
+  </si>
+  <si>
+    <t>NU_REM</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB
+RO.HAB.001</t>
+  </si>
+  <si>
+    <t>AC.CEM.001
+AC.CMR.001
+AC.CPA.001
+AC.CPO.001
+RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+MP.CPT.001
+RT.ART.001
+RO.CAL.001
+RO.CAT.001
+RO.HAB.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.FOU.001
+RO.SOCIETE.001
+MP.CPT.001
+RT.ART.001
+RO.ORG.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.ORG.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RT.ART.001
+RO.ORG.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.ORG.001
+RO.ORG.001A</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.ORG.001
+RT.EMP.001
+RO.CAL.001
+RO.CAL.001A
+RO.ORG.001A</t>
+  </si>
+  <si>
+    <t>ID_NUMECR</t>
+  </si>
+  <si>
+    <t>RO.UTI.001</t>
+  </si>
+  <si>
+    <t>ID_NUMOBJ</t>
+  </si>
+  <si>
+    <t>ID_NUMEQU</t>
+  </si>
+  <si>
+    <t>ID_CODIMP</t>
+  </si>
+  <si>
+    <t>ST_VALANU</t>
+  </si>
+  <si>
+    <t>ST_BURACT</t>
+  </si>
+  <si>
+    <t>ID_NUMDOC2</t>
+  </si>
+  <si>
+    <t>ST_CLAREA</t>
+  </si>
+  <si>
+    <t>ST_VALMAT</t>
+  </si>
+  <si>
+    <t>ST_CRENOM</t>
+  </si>
+  <si>
+    <t>ST_RIS</t>
+  </si>
+  <si>
+    <t>NU_PRIVEN</t>
+  </si>
+  <si>
+    <t>NU_PRICON</t>
+  </si>
+  <si>
+    <t>NU_PRISTA</t>
+  </si>
+  <si>
+    <t>ST_FIGCLA</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+MP.CPT.001
+RO.FOU.001
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>RT.ART.001
+RT.ART.001B</t>
+  </si>
+  <si>
+    <t>RO.FOU.001
+RT.ART.001B</t>
+  </si>
+  <si>
+    <t>MP.CPT.001
+RT.ART.001
+RT.ART.001B</t>
+  </si>
+  <si>
+    <t>AC.CEM.001
+AC.CMR.001
+AC.CPA.001
+AC.CPO.001
+RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+MP.CPT.001
+RT.ART.001
+RO.CAL.001
+RO.CAT.001
+RO.HAB.001
+RT.ART.001B</t>
+  </si>
+  <si>
+    <t>NU_COE</t>
+  </si>
+  <si>
+    <t>RT.ART.001B</t>
+  </si>
+  <si>
+    <t>RT.ART.001
+RT.ART.001B
+RT.ART.001C</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.FOU.001
+RO.SOCIETE.001
+MP.CPT.001
+RT.ART.001
+RO.ORG.001
+RT.NOM.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.FOU.001
+MP.CPT.001
+RT.ART.001
+RT.NOM.001</t>
+  </si>
+  <si>
+    <t>AC.CEM.001
+AC.CMR.001
+AC.CPA.001
+AC.CPO.001
+RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+MP.CPT.001
+RT.ART.001
+RO.CAL.001
+RO.CAT.001
+RO.HAB.001
+RT.ART.001B
+RT.NOM.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ACT.005
+RO.CCO.001
+RO.FOU.001
+MP.CPT.001
+RT.ART.001
+RO.CAL.001
+RT.NOM.001</t>
+  </si>
+  <si>
+    <t>RT.NOM.001</t>
+  </si>
+  <si>
+    <t>RT.ART.001
+RT.NOM.001</t>
   </si>
 </sst>
 </file>
@@ -801,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -817,6 +1088,12 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
@@ -1124,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1175,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
     </row>
     <row ht="28.8" r="3" spans="1:10">
@@ -1219,7 +1496,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1242,13 +1519,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
     </row>
     <row ht="28.8" r="8" spans="1:10">
@@ -1259,13 +1536,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
     </row>
     <row ht="57.6" r="9" spans="1:10">
@@ -1276,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
     </row>
     <row ht="43.2" r="10" spans="1:10">
@@ -1425,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
     </row>
     <row ht="28.8" r="23" spans="1:10">
@@ -1458,7 +1735,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
     </row>
     <row ht="28.8" r="26" spans="1:10">
@@ -1668,13 +1945,13 @@
         <v>73</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1736,7 +2013,7 @@
         <v>80</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>82</v>
@@ -1877,6 +2154,12 @@
       <c r="A58" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="C58" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s" s="10">
+        <v>245</v>
+      </c>
       <c r="G58" s="4" t="s">
         <v>112</v>
       </c>
@@ -1909,846 +2192,1103 @@
         <v>20</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="9">
+      <c r="A61" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C61" t="s" s="9">
+      <c r="C61" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D61" t="s" s="8">
+      <c r="D61" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I61" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J61" t="s" s="8">
+      <c r="I61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="9">
+      <c r="A62" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I62" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J62" t="s" s="8">
-        <v>214</v>
+      <c r="I62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="9">
+      <c r="A63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I63" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J63" t="s" s="8">
+      <c r="I63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="9">
+      <c r="A64" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I64" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J64" t="s" s="8">
+      <c r="I64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="9">
+      <c r="A65" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I65" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J65" t="s" s="8">
+      <c r="C65" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D65" t="s" s="10">
+        <v>213</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="9">
-        <v>130</v>
-      </c>
-      <c r="I66" t="s" s="9">
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I67" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J66" t="s" s="8">
+      <c r="J67" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="9">
-        <v>132</v>
-      </c>
-      <c r="I67" t="s" s="9">
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J67" t="s" s="8">
+      <c r="J68" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="9">
-        <v>133</v>
-      </c>
-      <c r="I68" t="s" s="9">
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J68" t="s" s="8">
+      <c r="J71" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="9">
-        <v>134</v>
-      </c>
-      <c r="I69" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J69" t="s" s="8">
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="9">
-        <v>135</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>121</v>
-      </c>
-      <c r="D70" t="s" s="8">
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I70" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J70" t="s" s="8">
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="9">
-        <v>136</v>
-      </c>
-      <c r="I71" t="s" s="9">
+      <c r="I74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D81" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D82" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J71" t="s" s="8">
+      <c r="J88" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D123" t="s" s="10">
+        <v>272</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="C128" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D128" t="s" s="10">
         <v>122</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="9">
-        <v>137</v>
-      </c>
-      <c r="I72" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="J72" t="s" s="8">
+    <row r="129">
+      <c r="A129" t="s" s="11">
+        <v>227</v>
+      </c>
+      <c r="C129" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D129" t="s" s="10">
         <v>122</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="9">
-        <v>138</v>
-      </c>
-      <c r="I73" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="J73" t="s" s="8">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="9">
-        <v>140</v>
-      </c>
-      <c r="E74" t="s" s="9">
-        <v>141</v>
-      </c>
-      <c r="F74" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="I74" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J74" t="s" s="8">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="9">
-        <v>142</v>
-      </c>
-      <c r="E75" t="s" s="9">
-        <v>143</v>
-      </c>
-      <c r="F75" t="s" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="9">
-        <v>144</v>
-      </c>
-      <c r="G76" t="s" s="9">
-        <v>145</v>
-      </c>
-      <c r="H76" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="9">
-        <v>147</v>
-      </c>
-      <c r="I77" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J77" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="9">
-        <v>148</v>
-      </c>
-      <c r="I78" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J78" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="9">
-        <v>149</v>
-      </c>
-      <c r="I79" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J79" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="9">
-        <v>150</v>
-      </c>
-      <c r="I80" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J80" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="9">
-        <v>151</v>
-      </c>
-      <c r="I81" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J81" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="9">
-        <v>152</v>
-      </c>
-      <c r="I82" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J82" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="9">
-        <v>153</v>
-      </c>
-      <c r="I83" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J83" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="9">
-        <v>154</v>
-      </c>
-      <c r="I84" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J84" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="9">
-        <v>155</v>
-      </c>
-      <c r="I85" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J85" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="9">
-        <v>156</v>
-      </c>
-      <c r="I86" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J86" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="9">
-        <v>157</v>
-      </c>
-      <c r="I87" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J87" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="9">
-        <v>158</v>
-      </c>
-      <c r="I88" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="J88" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="9">
-        <v>159</v>
-      </c>
-      <c r="I89" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J89" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="9">
-        <v>160</v>
-      </c>
-      <c r="I90" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J90" t="s" s="8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="9">
-        <v>161</v>
-      </c>
-      <c r="C91" t="s" s="9">
-        <v>162</v>
-      </c>
-      <c r="D91" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I91" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J91" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="9">
-        <v>164</v>
-      </c>
-      <c r="C92" t="s" s="9">
-        <v>165</v>
-      </c>
-      <c r="D92" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I92" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J92" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="9">
-        <v>166</v>
-      </c>
-      <c r="C93" t="s" s="9">
-        <v>167</v>
-      </c>
-      <c r="D93" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I93" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J93" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="9">
-        <v>168</v>
-      </c>
-      <c r="C94" t="s" s="9">
-        <v>169</v>
-      </c>
-      <c r="D94" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I94" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J94" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="9">
-        <v>170</v>
-      </c>
-      <c r="C95" t="s" s="9">
-        <v>171</v>
-      </c>
-      <c r="D95" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I95" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J95" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="C96" t="s" s="9">
-        <v>173</v>
-      </c>
-      <c r="D96" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I96" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J96" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="9">
-        <v>174</v>
-      </c>
-      <c r="C97" t="s" s="9">
-        <v>206</v>
-      </c>
-      <c r="D97" t="s" s="8">
-        <v>207</v>
-      </c>
-      <c r="G97" t="s" s="9">
-        <v>175</v>
-      </c>
-      <c r="H97" t="s" s="8">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="9">
-        <v>176</v>
-      </c>
-      <c r="I98" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J98" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="9">
-        <v>177</v>
-      </c>
-      <c r="I99" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J99" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="9">
-        <v>178</v>
-      </c>
-      <c r="I100" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J100" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="9">
-        <v>179</v>
-      </c>
-      <c r="I101" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J101" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="9">
-        <v>180</v>
-      </c>
-      <c r="I102" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J102" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="9">
-        <v>181</v>
-      </c>
-      <c r="I103" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J103" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="9">
-        <v>182</v>
-      </c>
-      <c r="I104" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J104" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="9">
-        <v>183</v>
-      </c>
-      <c r="I105" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J105" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="9">
-        <v>184</v>
-      </c>
-      <c r="I106" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J106" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="9">
-        <v>185</v>
-      </c>
-      <c r="I107" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J107" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="9">
-        <v>186</v>
-      </c>
-      <c r="I108" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J108" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="I109" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J109" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="9">
-        <v>188</v>
-      </c>
-      <c r="I110" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="J110" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="9">
-        <v>189</v>
-      </c>
-      <c r="I111" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="J111" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="9">
-        <v>190</v>
-      </c>
-      <c r="I112" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="J112" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="9">
-        <v>191</v>
-      </c>
-      <c r="C113" t="s" s="9">
-        <v>192</v>
-      </c>
-      <c r="D113" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I113" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J113" t="s" s="8">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="9">
-        <v>194</v>
-      </c>
-      <c r="E114" t="s" s="9">
-        <v>195</v>
-      </c>
-      <c r="F114" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I114" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J114" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="9">
-        <v>196</v>
-      </c>
-      <c r="E115" t="s" s="9">
-        <v>197</v>
-      </c>
-      <c r="F115" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I115" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J115" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="E116" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="F116" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I116" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J116" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="E117" t="s" s="9">
-        <v>201</v>
-      </c>
-      <c r="F117" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I117" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J117" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="9">
-        <v>202</v>
-      </c>
-      <c r="E118" t="s" s="9">
-        <v>203</v>
-      </c>
-      <c r="F118" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I118" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J118" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="9">
-        <v>204</v>
-      </c>
-      <c r="E119" t="s" s="9">
-        <v>205</v>
-      </c>
-      <c r="F119" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="I119" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J119" t="s" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="9">
-        <v>209</v>
-      </c>
-      <c r="I120" t="s" s="9">
-        <v>210</v>
-      </c>
-      <c r="J120" t="s" s="8">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="9">
-        <v>212</v>
-      </c>
-      <c r="I121" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J121" t="s" s="8">
+    <row r="130">
+      <c r="A130" t="s" s="11">
+        <v>236</v>
+      </c>
+      <c r="C130" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D130" t="s" s="10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="11">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D131" t="s" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="11">
+        <v>246</v>
+      </c>
+      <c r="C132" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D132" t="s" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="11">
+        <v>247</v>
+      </c>
+      <c r="C133" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D133" t="s" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="11">
+        <v>248</v>
+      </c>
+      <c r="C134" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D134" t="s" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="11">
+        <v>249</v>
+      </c>
+      <c r="C135" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D135" t="s" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="11">
+        <v>250</v>
+      </c>
+      <c r="C136" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D136" t="s" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="11">
+        <v>251</v>
+      </c>
+      <c r="C137" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D137" t="s" s="10">
         <v>213</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="s" s="9">
-        <v>215</v>
-      </c>
-      <c r="I122" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J122" t="s" s="8">
+    <row r="138">
+      <c r="A138" t="s" s="11">
+        <v>252</v>
+      </c>
+      <c r="C138" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D138" t="s" s="10">
         <v>213</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="s" s="9">
-        <v>219</v>
-      </c>
-      <c r="I123" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="J123" t="s" s="8">
+    <row r="139">
+      <c r="A139" t="s" s="11">
+        <v>253</v>
+      </c>
+      <c r="C139" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D139" t="s" s="10">
         <v>213</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="s" s="9">
-        <v>220</v>
-      </c>
-      <c r="I124" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J124" t="s" s="8">
+    <row r="140">
+      <c r="A140" t="s" s="11">
+        <v>254</v>
+      </c>
+      <c r="C140" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D140" t="s" s="10">
         <v>213</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="s" s="9">
-        <v>222</v>
-      </c>
-      <c r="I125" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J125" t="s" s="8">
+    <row r="141">
+      <c r="A141" t="s" s="11">
+        <v>255</v>
+      </c>
+      <c r="C141" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D141" t="s" s="10">
         <v>213</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="s" s="9">
-        <v>224</v>
-      </c>
-      <c r="I126" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="J126" t="s" s="8">
+    <row r="142">
+      <c r="A142" t="s" s="11">
+        <v>256</v>
+      </c>
+      <c r="C142" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D142" t="s" s="10">
         <v>213</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="s" s="9">
-        <v>225</v>
-      </c>
-      <c r="I127" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="J127" t="s" s="8">
+    <row r="143">
+      <c r="A143" t="s" s="11">
+        <v>257</v>
+      </c>
+      <c r="C143" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D143" t="s" s="10">
         <v>213</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="11">
+        <v>258</v>
+      </c>
+      <c r="C144" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D144" t="s" s="10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="11">
+        <v>259</v>
+      </c>
+      <c r="C145" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D145" t="s" s="10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="C146" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D146" t="s" s="10">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/TNR/infoPARA.xlsx
+++ b/TNR/infoPARA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="515">
   <si>
     <t>NOM</t>
   </si>
@@ -1047,6 +1047,15 @@
 RO.HAB.001</t>
   </si>
   <si>
+    <t>ID_NUMIMP</t>
+  </si>
+  <si>
+    <t>IMPARB_ID</t>
+  </si>
+  <si>
+    <t>RO.IMP.001A</t>
+  </si>
+  <si>
     <t>FA.CSV.001
 MP.CPT.001
 MP.ECH.001
@@ -1103,9 +1112,6 @@
 RO.ORG.001</t>
   </si>
   <si>
-    <t>SER_ID</t>
-  </si>
-  <si>
     <t>NU_EFF</t>
   </si>
   <si>
@@ -1135,8 +1141,29 @@
     <t>RO.IMP*001*ID_CODIMP</t>
   </si>
   <si>
-    <t>RO.ORG.001
-RO.ORG.001A</t>
+    <t>MP.CPT.001
+RO.ACT.001
+RO.FOU.001
+RO.ORG.001</t>
+  </si>
+  <si>
+    <t>ST_DESIMP</t>
+  </si>
+  <si>
+    <t>RO.ACT.001
+RO.ORG.001</t>
+  </si>
+  <si>
+    <t>ST_DESID_GESNIV</t>
+  </si>
+  <si>
+    <t>ST_CODZON</t>
+  </si>
+  <si>
+    <t>SER_ID</t>
+  </si>
+  <si>
+    <t>RO.ORG.001A</t>
   </si>
   <si>
     <t>RO.ACT.001
@@ -1164,7 +1191,6 @@
 RO.ACT.005
 RO.CLI.001
 RO.FOU.001
-RO.ORG.001
 RO.SOCIETE.001</t>
   </si>
   <si>
@@ -1196,6 +1222,12 @@
     <t>MP.CPT.001
 MP.LOT.001
 RT.ART.001</t>
+  </si>
+  <si>
+    <t>ID_NUMDOC1</t>
+  </si>
+  <si>
+    <t>ARTDOC_ID</t>
   </si>
   <si>
     <t>ID_NUMDOC2</t>
@@ -1212,7 +1244,6 @@
 RO.ACT.005
 RO.CLI.001
 RO.FOU.001
-RO.ORG.001
 RO.SOCIETE.001
 RT.ART.001</t>
   </si>
@@ -1264,9 +1295,6 @@
     <t>ST_VALMAT</t>
   </si>
   <si>
-    <t>ST_CRENOM</t>
-  </si>
-  <si>
     <t>ST_RIS</t>
   </si>
   <si>
@@ -1313,6 +1341,13 @@
     <t>MP.CPT.001
 RO.ACT.001
 RO.FOU.001
+RT.ART.001</t>
+  </si>
+  <si>
+    <t>MP.CPT.001
+RO.ACT.001
+RO.FOU.001
+RO.ORG.001
 RT.ART.001</t>
   </si>
   <si>
@@ -1471,7 +1506,6 @@
 RO.ACT.005
 RO.CLI.001
 RO.FOU.001
-RO.ORG.001
 RO.SOCIETE.001
 RT.ART.001
 RT.EQU.001</t>
@@ -1594,7 +1628,6 @@
 RO.ACT.005
 RO.CLI.001
 RO.FOU.001
-RO.ORG.001
 RO.SOCIETE.001
 RT.ART.001
 RT.EQU.001
@@ -1853,6 +1886,7 @@
     <t>MP.CPT.001
 RO.ACT.001
 RO.FOU.001
+RO.ORG.001
 RT.ART.001
 RT.MAT.001</t>
   </si>
@@ -1860,9 +1894,6 @@
     <t>ST_DESID_NUMCRI</t>
   </si>
   <si>
-    <t>ST_DESIMP</t>
-  </si>
-  <si>
     <t>ST_DESGRO</t>
   </si>
   <si>
@@ -1870,6 +1901,7 @@
   </si>
   <si>
     <t>RO.ACT.001
+RO.ORG.001
 RT.MAT.001</t>
   </si>
   <si>
@@ -1907,14 +1939,18 @@
 RT.MAT.001</t>
   </si>
   <si>
+    <t>ID_NUMMVT</t>
+  </si>
+  <si>
+    <t>BTMAT_ID</t>
+  </si>
+  <si>
+    <t>RT.MAT.001B</t>
+  </si>
+  <si>
     <t>RO.ACT.001
 RO.ACT.005
 RT.MAT.001
-RT.MAT.001B</t>
-  </si>
-  <si>
-    <t>RO.CLI.001
-RT.EMP.001
 RT.MAT.001B</t>
   </si>
   <si>
@@ -1933,7 +1969,6 @@
 RO.ACT.005
 RO.CLI.001
 RO.FOU.001
-RO.ORG.001
 RO.SOCIETE.001
 RT.ART.001
 RT.EQU.001
@@ -2014,7 +2049,6 @@
 RO.ACT.005
 RO.CLI.001
 RO.FOU.001
-RO.ORG.001
 RO.SOCIETE.001
 RT.ART.001
 RT.EQU.001
@@ -2141,7 +2175,6 @@
 RO.ACT.005
 RO.CLI.001
 RO.FOU.001
-RO.ORG.001
 RO.SOCIETE.001
 RT.ART.001
 RT.EQU.001
@@ -2265,7 +2298,6 @@
   <si>
     <t>RO.CLI.001
 RT.EMP.001
-RT.MAT.001B
 TR.BT.001</t>
   </si>
   <si>
@@ -2290,7 +2322,6 @@
 RO.ACT.005
 RO.CLI.001
 RO.FOU.001
-RO.ORG.001
 RO.SOCIETE.001
 RT.ART.001
 RT.EQU.001
@@ -2430,7 +2461,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -2448,12 +2479,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2756,15 +2781,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:L227"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="10" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2809,45 +2836,53 @@
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>503</v>
-      </c>
+      <c r="G2" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="7">
+        <v>514</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="G3" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="7">
         <v>23</v>
       </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="G4" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="7">
         <v>23</v>
       </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="G5" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="H5" t="s" s="7">
         <v>19</v>
       </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
@@ -2857,14 +2892,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>450</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s" s="7">
+        <v>461</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
@@ -2874,14 +2911,16 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>482</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="7">
+        <v>493</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
@@ -2891,13 +2930,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G8" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>469</v>
+      <c r="J8" t="s" s="7">
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2908,25 +2949,29 @@
         <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>495</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="G9" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s" s="7">
+        <v>506</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="G10" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="H10" t="s" s="7">
+        <v>508</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
@@ -2943,17 +2988,19 @@
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2962,12 +3009,14 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
-      <c r="I13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="G13" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s" s="7">
         <v>233</v>
       </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
@@ -2977,14 +3026,16 @@
         <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G14" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
@@ -2994,7 +3045,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
@@ -3007,36 +3058,42 @@
         <v>48</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>502</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="G16" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s" s="7">
+        <v>513</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>470</v>
-      </c>
+      <c r="G17" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s" s="7">
+        <v>481</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="G18" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
@@ -3044,12 +3101,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="I19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="G19" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
@@ -3059,14 +3118,16 @@
         <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="G20" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s" s="7">
+        <v>344</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
@@ -3096,34 +3157,40 @@
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="G23" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="H23" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="G24" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="H24" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="G25" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="H25" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="8" t="s">
@@ -3131,12 +3198,14 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="I26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="G26" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="8" t="s">
@@ -3148,56 +3217,66 @@
       <c r="D27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="G27" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="H28" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="G29" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="H29" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="G30" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="H30" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="G31" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="8" t="s">
@@ -3205,12 +3284,14 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1"/>
-      <c r="I32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="G32" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
@@ -3220,14 +3301,16 @@
         <v>69</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>431</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G33" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s" s="7">
+        <v>441</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
@@ -3241,12 +3324,14 @@
       <c r="F34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="G34" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s" s="7">
         <v>49</v>
       </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
@@ -3256,7 +3341,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3267,7 +3352,7 @@
         <v>76</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
@@ -3286,7 +3371,7 @@
         <v>79</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
@@ -3299,14 +3384,16 @@
         <v>81</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="G38" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
@@ -3314,12 +3401,14 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
-      <c r="I39" s="8" t="s">
+      <c r="G39" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>496</v>
-      </c>
+      <c r="H39" t="s" s="7">
+        <v>507</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
@@ -3329,7 +3418,7 @@
         <v>87</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
@@ -3344,22 +3433,22 @@
         <v>95</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="1"/>
+        <v>489</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="8" t="s">
@@ -3369,14 +3458,16 @@
         <v>100</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>455</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="G42" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s" s="7">
+        <v>466</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="8" t="s">
@@ -3386,36 +3477,42 @@
         <v>102</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>395</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G43" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s" s="7">
+        <v>405</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="G44" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s" s="7">
         <v>235</v>
       </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="7" t="s">
+      <c r="G45" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
@@ -3423,12 +3520,14 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="I46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>357</v>
-      </c>
+      <c r="G46" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s" s="7">
+        <v>367</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="8" t="s">
@@ -3440,12 +3539,14 @@
       <c r="D47" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="G47" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>276</v>
-      </c>
+      <c r="H47" t="s" s="7">
+        <v>279</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="4"/>
       <c r="L47" s="3"/>
     </row>
@@ -3453,106 +3554,124 @@
       <c r="A48" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>475</v>
-      </c>
+      <c r="G48" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s" s="7">
+        <v>486</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="8" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="7" t="s">
+      <c r="G49" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="G50" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="H50" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="7" t="s">
+      <c r="G51" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="G52" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="H52" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="G53" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="H53" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="G54" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="H54" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="G55" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="H55" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="G56" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="H56" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="8" t="s">
@@ -3560,12 +3679,14 @@
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="I57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>458</v>
-      </c>
+      <c r="G57" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s" s="7">
+        <v>469</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="8" t="s">
@@ -3575,7 +3696,7 @@
         <v>38</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="1"/>
@@ -3584,89 +3705,105 @@
       <c r="A59" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="7" t="s">
+      <c r="G59" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I59" s="6"/>
+      <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="G60" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="H60" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I60" s="6"/>
+      <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="G61" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="H61" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="G62" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="H62" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="G63" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="H63" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="G64" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="H64" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I64" s="6"/>
+      <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="7" t="s">
+      <c r="G65" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s" s="7">
         <v>235</v>
       </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I66" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="7" t="s">
+      <c r="G66" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s" s="7">
         <v>235</v>
       </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="8" t="s">
@@ -3674,12 +3811,14 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="1"/>
-      <c r="I67" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" s="7" t="s">
+      <c r="G67" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s" s="7">
         <v>235</v>
       </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="8" t="s">
@@ -3698,34 +3837,40 @@
       <c r="A69" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="G69" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="H69" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="G70" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="H70" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="G71" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="H71" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="8" t="s">
@@ -3733,12 +3878,14 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
-      <c r="I72" s="8" t="s">
+      <c r="G72" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="H72" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="8" t="s">
@@ -3750,12 +3897,14 @@
       <c r="D73" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J73" s="7" t="s">
+      <c r="G73" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="8" t="s">
@@ -3763,12 +3912,14 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
-      <c r="I74" s="8" t="s">
+      <c r="G74" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="H74" t="s" s="7">
         <v>175</v>
       </c>
+      <c r="I74" s="6"/>
+      <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="8" t="s">
@@ -3778,14 +3929,16 @@
         <v>137</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I75" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G75" t="s" s="8">
         <v>138</v>
       </c>
-      <c r="J75" s="7" t="s">
-        <v>280</v>
-      </c>
+      <c r="H75" t="s" s="7">
+        <v>283</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="8" t="s">
@@ -3797,12 +3950,14 @@
       <c r="F76" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" s="7" t="s">
+      <c r="G76" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s" s="7">
         <v>96</v>
       </c>
+      <c r="I76" s="6"/>
+      <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="8" t="s">
@@ -3814,12 +3969,14 @@
       <c r="F77" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I77" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" s="7" t="s">
+      <c r="G77" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s" s="7">
         <v>96</v>
       </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="5"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="8" t="s">
@@ -3831,12 +3988,14 @@
       <c r="F78" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>436</v>
-      </c>
+      <c r="G78" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s" s="7">
+        <v>445</v>
+      </c>
+      <c r="I78" s="6"/>
+      <c r="J78" s="5"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="8" t="s">
@@ -3850,6 +4009,12 @@
       <c r="F79" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="G79" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s" s="7">
+        <v>279</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="1"/>
     </row>
@@ -3863,23 +4028,27 @@
       <c r="D80" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="G80" t="s" s="8">
         <v>152</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="H80" t="s" s="7">
         <v>151</v>
       </c>
+      <c r="I80" s="6"/>
+      <c r="J80" s="5"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="G81" t="s" s="8">
         <v>154</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="H81" t="s" s="7">
         <v>151</v>
       </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="5"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="8" t="s">
@@ -3887,12 +4056,14 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="1"/>
-      <c r="I82" s="8" t="s">
+      <c r="G82" t="s" s="8">
         <v>156</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="H82" t="s" s="7">
         <v>151</v>
       </c>
+      <c r="I82" s="6"/>
+      <c r="J82" s="5"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="8" t="s">
@@ -3904,25 +4075,27 @@
       <c r="D83" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="G83" t="s" s="8">
         <v>161</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="H83" t="s" s="7">
         <v>160</v>
       </c>
+      <c r="I83" s="6"/>
+      <c r="J83" s="5"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="I84" s="6"/>
+      <c r="J84" s="5"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="8" t="s">
@@ -3932,14 +4105,14 @@
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="6"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="8" t="s">
@@ -3957,12 +4130,14 @@
       <c r="F86" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="G86" t="s" s="8">
         <v>170</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="H86" t="s" s="7">
         <v>166</v>
       </c>
+      <c r="I86" s="6"/>
+      <c r="J86" s="5"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="8" t="s">
@@ -3970,12 +4145,14 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="1"/>
-      <c r="I87" s="8" t="s">
+      <c r="G87" t="s" s="8">
         <v>173</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="H87" t="s" s="7">
         <v>166</v>
       </c>
+      <c r="I87" s="6"/>
+      <c r="J87" s="5"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="8" t="s">
@@ -3996,14 +4173,14 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="1"/>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="6"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="J89" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I89" s="2"/>
-      <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="8" t="s">
@@ -4015,12 +4192,14 @@
       <c r="D90" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="7" t="s">
+      <c r="G90" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s" s="7">
         <v>210</v>
       </c>
+      <c r="I90" s="6"/>
+      <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="8" t="s">
@@ -4032,12 +4211,14 @@
       <c r="D91" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I91" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="7" t="s">
+      <c r="G91" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s" s="7">
         <v>210</v>
       </c>
+      <c r="I91" s="6"/>
+      <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="8" t="s">
@@ -4049,12 +4230,14 @@
       <c r="D92" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="7" t="s">
+      <c r="G92" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s" s="7">
         <v>210</v>
       </c>
+      <c r="I92" s="6"/>
+      <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="8" t="s">
@@ -4066,12 +4249,14 @@
       <c r="D93" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I93" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="7" t="s">
+      <c r="G93" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s" s="7">
         <v>210</v>
       </c>
+      <c r="I93" s="6"/>
+      <c r="J93" s="5"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="8" t="s">
@@ -4083,12 +4268,14 @@
       <c r="D94" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I94" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="7" t="s">
+      <c r="G94" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s" s="7">
         <v>210</v>
       </c>
+      <c r="I94" s="6"/>
+      <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="8" t="s">
@@ -4100,111 +4287,131 @@
       <c r="D95" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I95" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="7" t="s">
+      <c r="G95" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s" s="7">
         <v>210</v>
       </c>
+      <c r="I95" s="6"/>
+      <c r="J95" s="5"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" s="7" t="s">
+      <c r="G96" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s" s="7">
         <v>185</v>
       </c>
+      <c r="I96" s="6"/>
+      <c r="J96" s="5"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="I97" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="7" t="s">
+      <c r="G97" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s" s="7">
         <v>185</v>
       </c>
+      <c r="I97" s="6"/>
+      <c r="J97" s="5"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J98" s="7" t="s">
+      <c r="G98" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s" s="7">
         <v>185</v>
       </c>
+      <c r="I98" s="6"/>
+      <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="7" t="s">
+      <c r="G99" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s" s="7">
         <v>185</v>
       </c>
+      <c r="I99" s="6"/>
+      <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="7" t="s">
+      <c r="G100" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s" s="7">
         <v>185</v>
       </c>
+      <c r="I100" s="6"/>
+      <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="G101" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="H101" t="s" s="7">
         <v>185</v>
       </c>
+      <c r="I101" s="6"/>
+      <c r="J101" s="5"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="I102" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J102" s="7" t="s">
+      <c r="G102" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s" s="7">
         <v>185</v>
       </c>
+      <c r="I102" s="6"/>
+      <c r="J102" s="5"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="I103" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" s="7" t="s">
+      <c r="G103" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s" s="7">
         <v>185</v>
       </c>
+      <c r="I103" s="6"/>
+      <c r="J103" s="5"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J104" s="7" t="s">
+      <c r="G104" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s" s="7">
         <v>229</v>
       </c>
+      <c r="I104" s="6"/>
+      <c r="J104" s="5"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="8" t="s">
@@ -4212,12 +4419,14 @@
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="1"/>
-      <c r="I105" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" s="7" t="s">
+      <c r="G105" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s" s="7">
         <v>229</v>
       </c>
+      <c r="I105" s="6"/>
+      <c r="J105" s="5"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="8" t="s">
@@ -4229,12 +4438,14 @@
       <c r="D106" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I106" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J106" s="7" t="s">
+      <c r="G106" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s" s="7">
         <v>229</v>
       </c>
+      <c r="I106" s="6"/>
+      <c r="J106" s="5"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="8" t="s">
@@ -4246,12 +4457,14 @@
       <c r="D107" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I107" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J107" s="7" t="s">
+      <c r="G107" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s" s="7">
         <v>229</v>
       </c>
+      <c r="I107" s="6"/>
+      <c r="J107" s="5"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="8" t="s">
@@ -4261,14 +4474,16 @@
         <v>219</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>343</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="G108" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s" s="7">
+        <v>353</v>
+      </c>
+      <c r="I108" s="6"/>
+      <c r="J108" s="5"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="8" t="s">
@@ -4278,18 +4493,18 @@
         <v>221</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>343</v>
-      </c>
+      <c r="G109" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="5"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="8" t="s">
@@ -4305,16 +4520,16 @@
         <v>169</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G110" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="H110" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I110" s="2"/>
-      <c r="J110" s="1"/>
+      <c r="J110" s="7" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="8" t="s">
@@ -4326,34 +4541,40 @@
       <c r="D111" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I111" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" s="7" t="s">
+      <c r="G111" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I111" s="6"/>
+      <c r="J111" s="5"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I112" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J112" s="7" t="s">
+      <c r="G112" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I112" s="6"/>
+      <c r="J112" s="5"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I113" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J113" s="7" t="s">
+      <c r="G113" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I113" s="6"/>
+      <c r="J113" s="5"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="8" t="s">
@@ -4361,12 +4582,14 @@
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="1"/>
-      <c r="I114" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J114" s="7" t="s">
+      <c r="G114" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I114" s="6"/>
+      <c r="J114" s="5"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="8" t="s">
@@ -4385,89 +4608,105 @@
       <c r="A116" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I116" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J116" s="7" t="s">
+      <c r="G116" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I116" s="6"/>
+      <c r="J116" s="5"/>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I117" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J117" s="7" t="s">
+      <c r="G117" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I117" s="6"/>
+      <c r="J117" s="5"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I118" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J118" s="7" t="s">
+      <c r="G118" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I118" s="6"/>
+      <c r="J118" s="5"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I119" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119" s="7" t="s">
+      <c r="G119" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I119" s="6"/>
+      <c r="J119" s="5"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I120" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J120" s="7" t="s">
+      <c r="G120" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I120" s="6"/>
+      <c r="J120" s="5"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I121" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J121" s="7" t="s">
+      <c r="G121" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I121" s="6"/>
+      <c r="J121" s="5"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="I122" s="8" t="s">
+      <c r="G122" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J122" s="7" t="s">
-        <v>336</v>
-      </c>
+      <c r="H122" t="s" s="7">
+        <v>346</v>
+      </c>
+      <c r="I122" s="6"/>
+      <c r="J122" s="5"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="G123" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J123" s="7" t="s">
+      <c r="H123" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I123" s="6"/>
+      <c r="J123" s="5"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="8" t="s">
@@ -4475,12 +4714,14 @@
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="1"/>
-      <c r="I124" s="8" t="s">
+      <c r="G124" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J124" s="7" t="s">
+      <c r="H124" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="5"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="8" t="s">
@@ -4494,12 +4735,14 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="1"/>
-      <c r="I125" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="G125" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s" s="7">
+        <v>321</v>
+      </c>
+      <c r="I125" s="6"/>
+      <c r="J125" s="5"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="8" t="s">
@@ -4509,14 +4752,16 @@
         <v>254</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>311</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="G126" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s" s="7">
+        <v>321</v>
+      </c>
+      <c r="I126" s="6"/>
+      <c r="J126" s="5"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="8" t="s">
@@ -4528,12 +4773,14 @@
       <c r="F127" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I127" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J127" s="7" t="s">
+      <c r="G127" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I127" s="6"/>
+      <c r="J127" s="5"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="8" t="s">
@@ -4545,12 +4792,14 @@
       <c r="F128" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I128" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J128" s="7" t="s">
+      <c r="G128" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="5"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="8" t="s">
@@ -4562,12 +4811,14 @@
       <c r="F129" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I129" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J129" s="7" t="s">
+      <c r="G129" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I129" s="6"/>
+      <c r="J129" s="5"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="8" t="s">
@@ -4579,12 +4830,14 @@
       <c r="F130" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I130" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J130" s="7" t="s">
+      <c r="G130" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I130" s="6"/>
+      <c r="J130" s="5"/>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="8" t="s">
@@ -4596,1210 +4849,1422 @@
       <c r="F131" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I131" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J131" s="7" t="s">
+      <c r="G131" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s" s="7">
         <v>232</v>
       </c>
+      <c r="I131" s="6"/>
+      <c r="J131" s="5"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="I132" s="8" t="s">
+      <c r="G132" t="s" s="8">
         <v>268</v>
       </c>
-      <c r="J132" s="7" t="s">
-        <v>501</v>
-      </c>
+      <c r="H132" t="s" s="7">
+        <v>512</v>
+      </c>
+      <c r="I132" s="6"/>
+      <c r="J132" s="5"/>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="1"/>
       <c r="I133" s="8" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>278</v>
+        <v>13</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="1"/>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J135" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I136" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>276</v>
-      </c>
+      <c r="G136" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s" s="7">
+        <v>279</v>
+      </c>
+      <c r="I136" s="6"/>
+      <c r="J136" s="5"/>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I137" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>276</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G137" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s" s="7">
+        <v>279</v>
+      </c>
+      <c r="I137" s="6"/>
+      <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="I138" s="8" t="s">
+      <c r="G138" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="J138" s="7" t="s">
-        <v>276</v>
-      </c>
+      <c r="H138" t="s" s="7">
+        <v>279</v>
+      </c>
+      <c r="I138" s="6"/>
+      <c r="J138" s="5"/>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="1"/>
-      <c r="I139" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>276</v>
-      </c>
+      <c r="G139" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H139" t="s" s="7">
+        <v>279</v>
+      </c>
+      <c r="I139" s="6"/>
+      <c r="J139" s="5"/>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C140" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G140" s="2"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>404</v>
-      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="5"/>
+      <c r="G140" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I140" s="6"/>
+      <c r="J140" s="5"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>494</v>
+      </c>
       <c r="G141" s="8" t="s">
-        <v>292</v>
+        <v>13</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="5"/>
+      <c r="G142" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s" s="7">
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="5"/>
+      <c r="G143" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s" s="7">
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="5"/>
+      <c r="G144" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s" s="7">
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="5"/>
+      <c r="I145" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I145" s="2"/>
-      <c r="J145" s="1"/>
+      <c r="J145" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>368</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="I146" s="6"/>
+      <c r="J146" s="5"/>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="1"/>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="1"/>
-      <c r="I148" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>330</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I148" s="6"/>
+      <c r="J148" s="5"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="I149" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>464</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="I149" s="6"/>
+      <c r="J149" s="5"/>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="1"/>
-      <c r="I150" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J150" s="7" t="s">
-        <v>302</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G150" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s" s="7">
+        <v>378</v>
+      </c>
+      <c r="I150" s="6"/>
+      <c r="J150" s="5"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>302</v>
+      <c r="C151" s="6"/>
+      <c r="D151" s="5"/>
+      <c r="I151" t="s" s="8">
+        <v>313</v>
+      </c>
+      <c r="J151" t="s" s="7">
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="5"/>
+      <c r="G153" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s" s="7">
+        <v>340</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>302</v>
+        <v>474</v>
+      </c>
+      <c r="G154" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="H154" t="s" s="7">
+        <v>475</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="1"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J155" s="7" t="s">
-        <v>302</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="G155" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="I155" s="6"/>
+      <c r="J155" s="5"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="1"/>
-      <c r="I156" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J156" s="7" t="s">
-        <v>302</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I156" s="6"/>
+      <c r="J156" s="5"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="1"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I158" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>302</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C158" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="I158" s="6"/>
+      <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="1"/>
-      <c r="I159" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J159" s="7" t="s">
-        <v>302</v>
-      </c>
+      <c r="G159" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="I159" s="6"/>
+      <c r="J159" s="5"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="I160" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J160" s="7" t="s">
-        <v>302</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E160" s="6"/>
+      <c r="F160" s="5"/>
+      <c r="G160" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H160" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="I160" s="6"/>
+      <c r="J160" s="5"/>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="I161" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J161" s="7" t="s">
-        <v>447</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C161" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D161" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="E161" s="6"/>
+      <c r="F161" s="5"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="5"/>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="1"/>
-      <c r="I162" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J162" s="7" t="s">
-        <v>401</v>
-      </c>
+      <c r="G162" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="I162" s="6"/>
+      <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="5"/>
+      <c r="G163" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H163" t="s" s="7">
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="5"/>
+      <c r="E164" t="s" s="8">
+        <v>333</v>
+      </c>
+      <c r="F164" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="G164" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s" s="7">
+        <v>310</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="1"/>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="8" t="s">
-        <v>354</v>
+        <v>336</v>
+      </c>
+      <c r="E165" t="s" s="8">
+        <v>337</v>
+      </c>
+      <c r="F165" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="G165" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s" s="7">
+        <v>456</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="1"/>
-      <c r="K165" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="L165" s="7" t="s">
-        <v>400</v>
-      </c>
+      <c r="K165" s="6"/>
+      <c r="L165" s="5"/>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="8" t="s">
-        <v>359</v>
+        <v>343</v>
+      </c>
+      <c r="G166" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s" s="7">
+        <v>411</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="1"/>
-      <c r="K166" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L166" s="7" t="s">
-        <v>498</v>
-      </c>
+      <c r="K166" s="6"/>
+      <c r="L166" s="5"/>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="I167" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J167" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C167" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D167" t="s" s="7">
+        <v>339</v>
+      </c>
+      <c r="I167" s="6"/>
+      <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="I168" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J168" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C168" t="s" s="8">
+        <v>350</v>
+      </c>
+      <c r="D168" t="s" s="7">
+        <v>351</v>
+      </c>
+      <c r="I168" s="6"/>
+      <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="I169" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J169" s="7" t="s">
         <v>364</v>
+      </c>
+      <c r="I169" s="6"/>
+      <c r="J169" s="5"/>
+      <c r="K169" t="s" s="8">
+        <v>365</v>
+      </c>
+      <c r="L169" t="s" s="7">
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J170" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
+      </c>
+      <c r="I170" s="6"/>
+      <c r="J170" s="5"/>
+      <c r="K170" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="L170" t="s" s="7">
+        <v>509</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="I171" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J171" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G171" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I171" s="6"/>
+      <c r="J171" s="5"/>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="I172" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J172" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G172" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I172" s="6"/>
+      <c r="J172" s="5"/>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="I173" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J173" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G173" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I173" s="6"/>
+      <c r="J173" s="5"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="I174" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J174" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="G174" t="s" s="8">
+        <v>388</v>
+      </c>
+      <c r="H174" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I174" s="6"/>
+      <c r="J174" s="5"/>
       <c r="K174" s="4"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="I175" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J175" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G175" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I175" s="6"/>
+      <c r="J175" s="5"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="I176" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J176" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="G176" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I176" s="6"/>
+      <c r="J176" s="5"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J177" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K177" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="L177" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="G177" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I177" s="6"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="5"/>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="I178" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J178" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G178" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I178" s="6"/>
+      <c r="J178" s="5"/>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I179" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J179" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="G179" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H179" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I179" s="6"/>
+      <c r="J179" s="5"/>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I180" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J180" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="G180" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I180" s="6"/>
+      <c r="J180" s="5"/>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I181" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J181" s="7" t="s">
-        <v>364</v>
+        <v>396</v>
+      </c>
+      <c r="G181" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="H181" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I181" s="6"/>
+      <c r="J181" s="5"/>
+      <c r="K181" t="s" s="8">
+        <v>397</v>
+      </c>
+      <c r="L181" t="s" s="7">
+        <v>374</v>
       </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I182" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J182" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="G182" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I182" s="6"/>
+      <c r="J182" s="5"/>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I183" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J183" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G183" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I183" s="6"/>
+      <c r="J183" s="5"/>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="I184" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J184" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="G184" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I184" s="6"/>
+      <c r="J184" s="5"/>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="I185" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J185" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="G185" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I185" s="6"/>
+      <c r="J185" s="5"/>
       <c r="K185" s="4"/>
       <c r="L185" s="3"/>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I186" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J186" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G186" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I186" s="6"/>
+      <c r="J186" s="5"/>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="I187" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J187" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="G187" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H187" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I187" s="6"/>
+      <c r="J187" s="5"/>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="1"/>
-      <c r="I188" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J188" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G188" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H188" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I188" s="6"/>
+      <c r="J188" s="5"/>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="I189" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J189" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="G189" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H189" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I189" s="6"/>
+      <c r="J189" s="5"/>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C190" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D190" s="7" t="s">
-        <v>364</v>
+      <c r="C190" s="6"/>
+      <c r="D190" s="5"/>
+      <c r="G190" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H190" t="s" s="7">
+        <v>374</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="1"/>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="1"/>
-      <c r="I191" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J191" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G191" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I191" s="6"/>
+      <c r="J191" s="5"/>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I192" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J192" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="5"/>
+      <c r="G192" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I192" s="6"/>
+      <c r="J192" s="5"/>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>364</v>
+        <v>417</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="5"/>
+      <c r="G193" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s" s="7">
+        <v>374</v>
       </c>
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="8" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>33</v>
+        <v>419</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>364</v>
+        <v>420</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="5"/>
+      <c r="G195" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s" s="7">
+        <v>374</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="1"/>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="8" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
+      </c>
+      <c r="G196" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s" s="7">
+        <v>374</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="1"/>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="8" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I197" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J197" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="I197" s="6"/>
+      <c r="J197" s="5"/>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="8" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I198" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J198" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="I198" s="6"/>
+      <c r="J198" s="5"/>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="8" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I199" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J199" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="I199" s="6"/>
+      <c r="J199" s="5"/>
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="8" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I200" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J200" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="I200" s="6"/>
+      <c r="J200" s="5"/>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="I201" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J201" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C201" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="G201" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I201" s="6"/>
+      <c r="J201" s="5"/>
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="1"/>
-      <c r="I202" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J202" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G202" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H202" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I202" s="6"/>
+      <c r="J202" s="5"/>
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="I203" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J203" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C203" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="G203" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I203" s="6"/>
+      <c r="J203" s="5"/>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>425</v>
+        <v>25</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="I204" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J204" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="G204" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I204" s="6"/>
+      <c r="J204" s="5"/>
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
+      </c>
+      <c r="G205" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H205" t="s" s="7">
+        <v>374</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="1"/>
-      <c r="K205" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="L205" s="7" t="s">
-        <v>500</v>
-      </c>
+      <c r="K205" s="6"/>
+      <c r="L205" s="5"/>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="8" t="s">
-        <v>428</v>
+        <v>431</v>
+      </c>
+      <c r="G206" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H206" t="s" s="7">
+        <v>374</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="1"/>
-      <c r="K206" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L206" s="7" t="s">
-        <v>453</v>
-      </c>
+      <c r="K206" s="6"/>
+      <c r="L206" s="5"/>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="I207" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J207" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="G207" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I207" s="6"/>
+      <c r="J207" s="5"/>
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="I208" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J208" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C208" t="s" s="8">
+        <v>435</v>
+      </c>
+      <c r="D208" t="s" s="7">
+        <v>465</v>
+      </c>
+      <c r="G208" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H208" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I208" s="6"/>
+      <c r="J208" s="5"/>
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="I209" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J209" s="7" t="s">
-        <v>364</v>
+        <v>436</v>
+      </c>
+      <c r="I209" s="6"/>
+      <c r="J209" s="5"/>
+      <c r="K209" t="s" s="8">
+        <v>437</v>
+      </c>
+      <c r="L209" t="s" s="7">
+        <v>511</v>
       </c>
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="I210" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J210" s="7" t="s">
-        <v>364</v>
+        <v>438</v>
+      </c>
+      <c r="I210" s="6"/>
+      <c r="J210" s="5"/>
+      <c r="K210" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="L210" t="s" s="7">
+        <v>464</v>
       </c>
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="I211" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J211" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="G211" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H211" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I211" s="6"/>
+      <c r="J211" s="5"/>
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I212" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J212" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="G212" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I212" s="6"/>
+      <c r="J212" s="5"/>
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="I213" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J213" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G213" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H213" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I213" s="6"/>
+      <c r="J213" s="5"/>
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="I214" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J214" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="G214" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H214" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I214" s="6"/>
+      <c r="J214" s="5"/>
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="I215" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J215" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="G215" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H215" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I215" s="6"/>
+      <c r="J215" s="5"/>
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="I216" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J216" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G216" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H216" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I216" s="6"/>
+      <c r="J216" s="5"/>
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="I217" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J217" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="G217" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H217" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I217" s="6"/>
+      <c r="J217" s="5"/>
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="I218" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J218" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="G218" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H218" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I218" s="6"/>
+      <c r="J218" s="5"/>
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="8" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="1"/>
-      <c r="I219" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J219" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G219" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I219" s="6"/>
+      <c r="J219" s="5"/>
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="8" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="1"/>
-      <c r="I220" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J220" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G220" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H220" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I220" s="6"/>
+      <c r="J220" s="5"/>
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="8" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="1"/>
-      <c r="I221" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J221" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G221" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H221" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I221" s="6"/>
+      <c r="J221" s="5"/>
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="8" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="1"/>
-      <c r="I222" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J222" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G222" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H222" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="I222" s="6"/>
+      <c r="J222" s="5"/>
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>485</v>
+        <v>453</v>
+      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="5"/>
+      <c r="G223" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H223" t="s" s="7">
+        <v>374</v>
       </c>
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>488</v>
+        <v>454</v>
+      </c>
+      <c r="C224" s="6"/>
+      <c r="D224" s="5"/>
+      <c r="G224" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H224" t="s" s="7">
+        <v>374</v>
       </c>
       <c r="K224" s="4"/>
       <c r="L224" s="3"/>
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>488</v>
+        <v>455</v>
+      </c>
+      <c r="C225" s="6"/>
+      <c r="D225" s="5"/>
+      <c r="G225" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="H225" t="s" s="7">
+        <v>374</v>
       </c>
       <c r="K225" s="4"/>
       <c r="L225" s="3"/>
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>488</v>
+        <v>457</v>
+      </c>
+      <c r="C226" s="6"/>
+      <c r="D226" s="5"/>
+      <c r="I226" t="s" s="8">
+        <v>458</v>
+      </c>
+      <c r="J226" t="s" s="7">
+        <v>459</v>
       </c>
       <c r="K226" s="4"/>
       <c r="L226" s="3"/>
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="8" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K227" s="4"/>
       <c r="L227" s="3"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="8">
+        <v>498</v>
+      </c>
+      <c r="C228" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D228" t="s" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="8">
+        <v>501</v>
+      </c>
+      <c r="C229" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="8">
+        <v>503</v>
+      </c>
+      <c r="C230" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D230" t="s" s="7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="8">
+        <v>504</v>
+      </c>
+      <c r="C231" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s" s="7">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
